--- a/experiments/Excel Charts/eps2e10,budg=eps,peers10,groups10,reg2e-8-2e3-data368-pubAll-spam-baseline-testsetRegularizationTest1.xlsx
+++ b/experiments/Excel Charts/eps2e10,budg=eps,peers10,groups10,reg2e-8-2e3-data368-pubAll-spam-baseline-testsetRegularizationTest1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\MML\mml-2015\experiments\Excel Charts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="10560"/>
   </bookViews>
@@ -546,6 +551,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -553,7 +561,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nn-NO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -565,31 +573,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Regularization</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Test 1</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -802,11 +786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="531782976"/>
-        <c:axId val="549082752"/>
+        <c:axId val="382972864"/>
+        <c:axId val="379338752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="531782976"/>
+        <c:axId val="382972864"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -814,19 +798,27 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="549082752"/>
+        <c:crossAx val="379338752"/>
         <c:crossesAt val="1.0000000000000004E-6"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
         <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="549082752"/>
+        <c:axId val="379338752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.70000000000000007"/>
@@ -838,7 +830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531782976"/>
+        <c:crossAx val="382972864"/>
         <c:crossesAt val="1.0000000000000005E-7"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -910,7 +902,7 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.78333</cdr:x>
+      <cdr:x>0.8229</cdr:x>
       <cdr:y>0.25554</cdr:y>
     </cdr:from>
     <cdr:to>
@@ -924,8 +916,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3581400" y="700997"/>
-          <a:ext cx="990600" cy="1113516"/>
+          <a:off x="4381499" y="859209"/>
+          <a:ext cx="942975" cy="1364834"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1029,12 +1021,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.79427</cdr:x>
-      <cdr:y>0.84906</cdr:y>
+      <cdr:x>0.80143</cdr:x>
+      <cdr:y>0.89155</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.94249</cdr:x>
-      <cdr:y>0.91039</cdr:y>
+      <cdr:x>0.94965</cdr:x>
+      <cdr:y>0.95288</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1043,8 +1035,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3631418" y="2329154"/>
-          <a:ext cx="677662" cy="168240"/>
+          <a:off x="4267171" y="2997691"/>
+          <a:ext cx="789193" cy="206211"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1187,7 +1179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1222,7 +1214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1715,7 +1707,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
